--- a/Tabela_Modelos/Tabela_Modelos.xlsx
+++ b/Tabela_Modelos/Tabela_Modelos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H2O\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72C33F3-D4BA-4AA4-966C-B0D0C02F97F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D799AB8-542A-48F5-8580-778D48E54A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="62">
   <si>
     <t>CMIP6 Model</t>
   </si>
@@ -241,6 +241,9 @@
       </rPr>
       <t>r1i1p1f2</t>
     </r>
+  </si>
+  <si>
+    <t>r1i1p1f2</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1340,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1428,7 +1431,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>12</v>
@@ -1446,10 +1449,10 @@
         <v>52</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="F6" s="21"/>
     </row>
@@ -1463,8 +1466,8 @@
       <c r="C7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>54</v>
+      <c r="D7" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>12</v>
@@ -1472,6 +1475,7 @@
       <c r="F7" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Tabela_Modelos/Tabela_Modelos.xlsx
+++ b/Tabela_Modelos/Tabela_Modelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H2O\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D799AB8-542A-48F5-8580-778D48E54A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1795C6B-4D59-4732-A4A6-4A9CB5AED59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Características_Modelos" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="61">
   <si>
     <t>CMIP6 Model</t>
   </si>
@@ -226,21 +226,6 @@
   </si>
   <si>
     <t>ACCESS-CM2</t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r1i1p1f2</t>
-    </r>
   </si>
   <si>
     <t>r1i1p1f2</t>
@@ -390,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -430,17 +415,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -453,7 +432,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1057,8 +1036,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1068,121 +1047,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="23" t="s">
+      <c r="B7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1199,7 +1178,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1208,121 +1187,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="B5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="B6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1339,8 +1318,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1349,130 +1328,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="17"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="17"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="17"/>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="B5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="20"/>
+      <c r="E5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="B6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="21"/>
+      <c r="E6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="B7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="21"/>
+      <c r="E7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
